--- a/techniqo/data_new_ticker/SBICARD.xlsx
+++ b/techniqo/data_new_ticker/SBICARD.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4836,6 +4836,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>859</v>
+      </c>
+      <c r="C127" t="n">
+        <v>865.5</v>
+      </c>
+      <c r="D127" t="n">
+        <v>856.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>858.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1049684</v>
+      </c>
+      <c r="G127" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>863.55</v>
+      </c>
+      <c r="C128" t="n">
+        <v>865</v>
+      </c>
+      <c r="D128" t="n">
+        <v>850</v>
+      </c>
+      <c r="E128" t="n">
+        <v>851.55</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1082791</v>
+      </c>
+      <c r="G128" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/SBICARD.xlsx
+++ b/techniqo/data_new_ticker/SBICARD.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4886,6 +4886,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>846.9</v>
+      </c>
+      <c r="C129" t="n">
+        <v>858</v>
+      </c>
+      <c r="D129" t="n">
+        <v>844</v>
+      </c>
+      <c r="E129" t="n">
+        <v>851.05</v>
+      </c>
+      <c r="F129" t="n">
+        <v>706512</v>
+      </c>
+      <c r="G129" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>856</v>
+      </c>
+      <c r="C130" t="n">
+        <v>863.8</v>
+      </c>
+      <c r="D130" t="n">
+        <v>826.55</v>
+      </c>
+      <c r="E130" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="F130" t="n">
+        <v>8126328</v>
+      </c>
+      <c r="G130" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
